--- a/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_HIP-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,69 +470,69 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -608,407 +544,407 @@
       <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>108,71%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>98,3%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>125,76%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>121,55%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>10.30391788009135</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>15.12572334313925</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>9.94882674391671</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>11.67455693010802</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.851954366083721</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.983004642593023</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.134101936208125</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>1.095498797533208</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 15,62</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 26,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 14,83</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,39; 16,41</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>44,59; 193,53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 270,1</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>61,59; 212,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>63,77; 196,62</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>4.509282753241119</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>4.340169092736852</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.738792379517958</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>7.078620585314188</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.2722628251511626</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.1191176367014827</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.5237901811995122</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.4987455060928317</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.45489096540612</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>26.76202092714841</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.43629543595921</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.28727203860743</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.689916202903557</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.700989367531311</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.985805254765639</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.894852263942769</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>90,99%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>69,66%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>106,36%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>78,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 5,81</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 8,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 6,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 5,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>41,06; 169,36</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>25,19; 130,74</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>52,14; 177,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>44,52; 117,24</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>4.224562703483755</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>5.713426206171003</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>5.111831722330789</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>4.476458253258856</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.9097166049211639</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.6966130933358542</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.305143454559641</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.7781680000475181</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.237339817704091</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.474371906873389</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.190304206103745</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.94053571654457</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.3952929571388223</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.2519413851602255</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.6226168161743886</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.4418011842399026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>6.370078806755217</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>8.623850895825463</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>7.215235995947335</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>6.258114727791771</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.748039510394857</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.307382496058371</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.215439598776354</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.245490625438236</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,72</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>39,49%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>79,73%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>45,68%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 4,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 7,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 3,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 2,62</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,07; 147,85</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>16,81; 191,44</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-21,72; 155,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-19,2; 116,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>1.480601245407501</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>4.170166984098075</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.217523538474301</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.8209979810117084</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3176962316261314</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.7973226502069397</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3598641607894094</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2597611295546351</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-1.310867944272214</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1.164694897604385</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-1.245719696452983</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>-0.8152239945739292</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2301221473981191</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.1680743803948672</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2835259821835265</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1948026975739092</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>4.104836609282255</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>7.464759625421645</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>3.550103878741859</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>2.558262012332072</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.260831292753708</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.914351306719414</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.698339123404672</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.128590849950847</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>104,53%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>79,65%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>106,04%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>86,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 6,66</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 9,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 6,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 5,94</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>63,75; 151,65</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>39,6; 129,93</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>67,69; 148,19</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>60,07; 119,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>5.28131242793863</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>6.582621229003095</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>4.976167761828863</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>4.593035821280544</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9620951195905748</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.7965251953438307</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.113151941266593</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.8096176555622192</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>3.606467198007697</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>3.734515303242727</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>3.49444647620029</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>3.438595940188568</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.5552099869107828</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.3959671224633213</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.6702175245812971</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.5360772917238322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>6.992471523307281</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>9.124006509946492</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>6.440547049463582</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>5.979493926075709</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.458559697775906</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.299273317032678</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.684466769786161</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.162061941056669</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -1016,13 +952,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
